--- a/Test/files/test.xlsx
+++ b/Test/files/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\dotnet\NPOI.Extend\src\Test\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\hub\dotnet\NPOI.Extend\test\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,9 +73,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -369,14 +372,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test/files/test.xlsx
+++ b/Test/files/test.xlsx
@@ -360,15 +360,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,17 +381,21 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
+      <c r="D1" t="str">
+        <f>A1&amp;C1&amp;"1s"""</f>
+        <v>helloTRUE1s"</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
   </sheetData>
@@ -397,5 +404,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>